--- a/Multicriteria/bin/Debug/_test_superiority_result.xlsx
+++ b/Multicriteria/bin/Debug/_test_superiority_result.xlsx
@@ -5,8 +5,8 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Таблица смежности" sheetId="1" r:id="R0166491561a347be"/>
-    <sheet name="Согласие" sheetId="2" r:id="Rae93bfb2edd8430e"/>
+    <sheet name="Результат" sheetId="1" r:id="Ra4865de26d6047c1"/>
+    <sheet name="Согласие" sheetId="2" r:id="R8bfbfae002fb444d"/>
   </sheets>
   <d:definedNames xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </workbook>
@@ -18,7 +18,7 @@
     <t>Модел(и)</t>
   </si>
   <si>
-    <t>Штрафной балл</t>
+    <t>Приоритет</t>
   </si>
   <si>
     <t>best</t>
